--- a/data/outputs/OR_altmetric/5.xlsx
+++ b/data/outputs/OR_altmetric/5.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE95"/>
+  <dimension ref="A1:CF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1011,6 +1016,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1252,6 +1260,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1509,6 +1520,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2011,6 +2028,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2264,6 +2284,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2517,6 +2540,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2778,6 +2804,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3031,6 +3060,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3280,6 +3312,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3533,6 +3568,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3786,6 +3824,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4043,6 +4084,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4292,6 +4336,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4545,6 +4592,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4796,6 +4846,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5045,6 +5098,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5306,6 +5362,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5563,6 +5622,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5818,6 +5880,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6065,6 +6130,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6338,6 +6406,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6603,6 +6674,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6868,6 +6942,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7129,6 +7206,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7402,6 +7482,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7671,6 +7754,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7936,6 +8022,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8209,6 +8298,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8474,6 +8566,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8745,6 +8840,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9010,6 +9108,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9281,6 +9382,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9530,6 +9634,9 @@
         <v>0</v>
       </c>
       <c r="CE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9773,6 +9880,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -10026,6 +10136,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10269,6 +10382,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10518,6 +10634,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10765,6 +10884,9 @@
         <v>0</v>
       </c>
       <c r="CE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11008,6 +11130,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11249,6 +11374,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11486,6 +11614,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11735,6 +11866,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11992,6 +12126,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12249,6 +12386,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12496,6 +12636,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12741,6 +12884,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12998,6 +13144,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13247,6 +13396,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13504,6 +13656,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13765,6 +13920,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -14022,6 +14180,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14267,6 +14428,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14524,6 +14688,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14779,6 +14946,9 @@
         <v>0</v>
       </c>
       <c r="CE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15022,6 +15192,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15275,6 +15448,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15530,6 +15706,9 @@
         <v>0</v>
       </c>
       <c r="CE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15773,6 +15952,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16022,6 +16204,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16271,6 +16456,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16528,6 +16716,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16777,6 +16968,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17030,6 +17224,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17275,6 +17472,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17530,6 +17730,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17773,6 +17976,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18022,6 +18228,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18271,6 +18480,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18524,6 +18736,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18773,6 +18988,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19018,6 +19236,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19271,6 +19492,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19520,6 +19744,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19777,6 +20004,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -20034,6 +20264,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20284,6 +20517,9 @@
       </c>
       <c r="CE78" t="n">
         <v>0</v>
+      </c>
+      <c r="CF78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -20526,6 +20762,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20767,6 +21006,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -21024,6 +21266,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21281,6 +21526,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21538,6 +21786,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21787,6 +22038,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -22032,6 +22286,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22285,6 +22542,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22542,6 +22802,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22791,6 +23054,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -23048,6 +23314,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23305,6 +23574,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23558,6 +23830,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23811,6 +24086,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -24054,6 +24332,9 @@
         <v>0</v>
       </c>
       <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24297,6 +24578,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24542,6 +24826,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
